--- a/Requis_Remise/Hierarchie_Onglets.xlsx
+++ b/Requis_Remise/Hierarchie_Onglets.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Onglets" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Consultation</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>Fait par Michaël Trahan</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>(Public) et (View)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,20 +275,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -281,10 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,17 +579,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
@@ -596,11 +603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -609,7 +616,9 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -622,153 +631,216 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="1">
         <v>200</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="1">
         <v>205</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="1">
         <v>270</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="1">
         <v>230</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="1">
         <v>290</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="1">
         <v>310</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="1">
         <v>330</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="1">
         <v>370</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="1">
         <v>400</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="1">
         <v>560</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="1">
         <v>590</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="6">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B14" s="1">
         <v>501</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C14" s="6">
         <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
